--- a/Final Project/Data/Target/AirlineSafety.xlsx
+++ b/Final Project/Data/Target/AirlineSafety.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="81">
   <si>
     <t>airline</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>is_firstworld</t>
+  </si>
+  <si>
+    <t>is_usa</t>
   </si>
   <si>
     <t>incidents_wt_85_99</t>
@@ -369,10 +372,13 @@
       <c r="V1" t="s">
         <v>21</v>
       </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" t="n">
         <v>3.20906734E8</v>
@@ -396,17 +402,17 @@
         <v>0.0</v>
       </c>
       <c r="I2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K2" t="n">
+        <v>79</v>
+      </c>
+      <c r="K2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L2" t="n">
         <v>6.2323403908376696</v>
       </c>
-      <c r="L2" t="n">
-        <v>0.0</v>
-      </c>
       <c r="M2" t="n">
         <v>0.0</v>
       </c>
@@ -420,27 +426,30 @@
         <v>0.0</v>
       </c>
       <c r="Q2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R2" t="n">
         <v>6.2323403908376696</v>
       </c>
-      <c r="R2" t="n">
-        <v>0.0</v>
-      </c>
       <c r="S2" t="n">
         <v>0.0</v>
       </c>
       <c r="T2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U2" t="n">
         <v>6.2323403908376696</v>
       </c>
-      <c r="U2" t="n">
-        <v>0.0</v>
-      </c>
       <c r="V2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W2" t="n">
         <v>6.2323403908376696</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" t="n">
         <v>1.197672318E9</v>
@@ -464,51 +473,54 @@
         <v>88.0</v>
       </c>
       <c r="I3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K3" t="n">
+        <v>79</v>
+      </c>
+      <c r="K3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L3" t="n">
         <v>63.45642197601498</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>5.009717524422236</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>106.87397385434102</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>73.47585702485945</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>11.689340890318547</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>0.8349529207370392</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>68.46613950043721</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>180.34983087920045</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>12.524293811055587</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>182.01973672067453</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>79.32052747001873</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>261.34026419069323</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" t="n">
         <v>3.85803648E8</v>
@@ -532,20 +544,20 @@
         <v>0.0</v>
       </c>
       <c r="I4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J4" t="s">
-        <v>78</v>
-      </c>
-      <c r="K4" t="n">
+        <v>79</v>
+      </c>
+      <c r="K4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L4" t="n">
         <v>15.551952479205175</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>2.591992079867529</v>
       </c>
-      <c r="M4" t="n">
-        <v>0.0</v>
-      </c>
       <c r="N4" t="n">
         <v>0.0</v>
       </c>
@@ -556,27 +568,30 @@
         <v>0.0</v>
       </c>
       <c r="Q4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R4" t="n">
         <v>18.143944559072704</v>
       </c>
-      <c r="R4" t="n">
-        <v>0.0</v>
-      </c>
       <c r="S4" t="n">
         <v>0.0</v>
       </c>
       <c r="T4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U4" t="n">
         <v>15.551952479205175</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>2.591992079867529</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>18.143944559072704</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" t="n">
         <v>5.96871813E8</v>
@@ -600,51 +615,54 @@
         <v>0.0</v>
       </c>
       <c r="I5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
-      </c>
-      <c r="K5" t="n">
+        <v>79</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" t="n">
         <v>5.02620484777357</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>8.377008079622618</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>107.2257034191695</v>
       </c>
-      <c r="N5" t="n">
-        <v>0.0</v>
-      </c>
       <c r="O5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P5" t="n">
         <v>1.6754016159245235</v>
       </c>
-      <c r="P5" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Q5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R5" t="n">
         <v>13.403212927396188</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>107.2257034191695</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>1.6754016159245235</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>113.9273098828676</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>8.377008079622618</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>122.30431796249022</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" t="n">
         <v>1.865253802E9</v>
@@ -668,19 +686,19 @@
         <v>0.0</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1.0722401411837466</v>
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
       </c>
       <c r="L6" t="n">
         <v>1.0722401411837466</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0</v>
+        <v>1.0722401411837466</v>
       </c>
       <c r="N6" t="n">
         <v>0.0</v>
@@ -692,27 +710,30 @@
         <v>0.0</v>
       </c>
       <c r="Q6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R6" t="n">
         <v>2.144480282367493</v>
       </c>
-      <c r="R6" t="n">
-        <v>0.0</v>
-      </c>
       <c r="S6" t="n">
         <v>0.0</v>
       </c>
       <c r="T6" t="n">
-        <v>1.0722401411837466</v>
+        <v>0.0</v>
       </c>
       <c r="U6" t="n">
         <v>1.0722401411837466</v>
       </c>
       <c r="V6" t="n">
+        <v>1.0722401411837466</v>
+      </c>
+      <c r="W6" t="n">
         <v>2.144480282367493</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" t="n">
         <v>3.004002661E9</v>
@@ -736,51 +757,54 @@
         <v>337.0</v>
       </c>
       <c r="I7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K7" t="n">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7" t="n">
         <v>4.66044860138025</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>1.99733511487725</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>26.298245679217125</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>112.18365561893889</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>1.3315567432515</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
         <v>0.66577837162575</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
         <v>6.6577837162575</v>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>138.481901298156</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>1.99733511487725</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>32.290251023848874</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>114.84676910544188</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>147.13702012929076</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" t="n">
         <v>8.69253552E8</v>
@@ -804,51 +828,54 @@
         <v>158.0</v>
       </c>
       <c r="I8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J8" t="s">
-        <v>78</v>
-      </c>
-      <c r="K8" t="n">
+        <v>79</v>
+      </c>
+      <c r="K8" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" t="n">
         <v>2.3008246505272836</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>4.601649301054567</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>378.4856550117381</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>181.7651473916554</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.1504123252636418</v>
       </c>
       <c r="P8" t="n">
         <v>1.1504123252636418</v>
       </c>
       <c r="Q8" t="n">
+        <v>1.1504123252636418</v>
+      </c>
+      <c r="R8" t="n">
         <v>6.90247395158185</v>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>560.2508024033935</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>2.3008246505272836</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>381.936891987529</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>187.5172090179736</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>569.4541010055026</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" t="n">
         <v>7.10174817E8</v>
@@ -872,51 +899,54 @@
         <v>7.0</v>
       </c>
       <c r="I9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J9" t="s">
-        <v>79</v>
-      </c>
-      <c r="K9" t="n">
+        <v>80</v>
+      </c>
+      <c r="K9" t="s">
+        <v>79</v>
+      </c>
+      <c r="L9" t="n">
         <v>4.224311997816166</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>7.040519996360277</v>
       </c>
-      <c r="M9" t="n">
-        <v>0.0</v>
-      </c>
       <c r="N9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O9" t="n">
         <v>9.856727994904386</v>
       </c>
-      <c r="O9" t="n">
-        <v>0.0</v>
-      </c>
       <c r="P9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>1.4081039992720554</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="R9" t="n">
         <v>11.264831994176443</v>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>9.856727994904386</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>1.4081039992720554</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>4.224311997816166</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>18.305351990536717</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>22.529663988352883</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" t="n">
         <v>9.65346773E8</v>
@@ -940,51 +970,54 @@
         <v>88.0</v>
       </c>
       <c r="I10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J10" t="s">
-        <v>79</v>
-      </c>
-      <c r="K10" t="n">
-        <v>5.17948590065883</v>
+        <v>80</v>
+      </c>
+      <c r="K10" t="s">
+        <v>80</v>
       </c>
       <c r="L10" t="n">
         <v>5.17948590065883</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0</v>
+        <v>5.17948590065883</v>
       </c>
       <c r="N10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O10" t="n">
         <v>91.1589518515954</v>
       </c>
-      <c r="O10" t="n">
-        <v>0.0</v>
-      </c>
       <c r="P10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>1.0358971801317658</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="R10" t="n">
         <v>10.35897180131766</v>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>91.1589518515954</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>1.0358971801317658</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>5.17948590065883</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>97.374334932386</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>102.55382083304484</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" t="n">
         <v>6.98012498E8</v>
@@ -1008,51 +1041,54 @@
         <v>0.0</v>
       </c>
       <c r="I11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J11" t="s">
-        <v>79</v>
-      </c>
-      <c r="K11" t="n">
+        <v>80</v>
+      </c>
+      <c r="K11" t="s">
+        <v>79</v>
+      </c>
+      <c r="L11" t="n">
         <v>10.028473730852882</v>
       </c>
-      <c r="L11" t="n">
+      <c r="M11" t="n">
         <v>5.730556417630218</v>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>71.63195522037773</v>
       </c>
-      <c r="N11" t="n">
-        <v>0.0</v>
-      </c>
       <c r="O11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P11" t="n">
         <v>2.865278208815109</v>
       </c>
-      <c r="P11" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Q11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R11" t="n">
         <v>15.7590301484831</v>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>71.63195522037773</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>2.865278208815109</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>84.52570716004573</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>5.730556417630218</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>90.25626357767595</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" t="n">
         <v>1.841234177E9</v>
@@ -1076,51 +1112,54 @@
         <v>0.0</v>
       </c>
       <c r="I12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J12" t="s">
-        <v>79</v>
-      </c>
-      <c r="K12" t="n">
+        <v>80</v>
+      </c>
+      <c r="K12" t="s">
+        <v>79</v>
+      </c>
+      <c r="L12" t="n">
         <v>1.6293419041830006</v>
       </c>
-      <c r="L12" t="n">
+      <c r="M12" t="n">
         <v>3.801797776427001</v>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>0.5431139680610002</v>
       </c>
-      <c r="N12" t="n">
-        <v>0.0</v>
-      </c>
       <c r="O12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P12" t="n">
         <v>0.5431139680610002</v>
       </c>
-      <c r="P12" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Q12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R12" t="n">
         <v>5.431139680610002</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0.5431139680610002</v>
       </c>
       <c r="S12" t="n">
         <v>0.5431139680610002</v>
       </c>
       <c r="T12" t="n">
+        <v>0.5431139680610002</v>
+      </c>
+      <c r="U12" t="n">
         <v>2.715569840305001</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>3.801797776427001</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>6.5173676167320025</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" t="n">
         <v>5.22835734E9</v>
@@ -1144,51 +1183,54 @@
         <v>416.0</v>
       </c>
       <c r="I13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J13" t="s">
-        <v>79</v>
-      </c>
-      <c r="K13" t="n">
+        <v>80</v>
+      </c>
+      <c r="K13" t="s">
+        <v>80</v>
+      </c>
+      <c r="L13" t="n">
         <v>4.016557904207825</v>
       </c>
-      <c r="L13" t="n">
+      <c r="M13" t="n">
         <v>3.2514992557872873</v>
       </c>
-      <c r="M13" t="n">
+      <c r="N13" t="n">
         <v>19.317730872618586</v>
       </c>
-      <c r="N13" t="n">
+      <c r="O13" t="n">
         <v>79.56609943573596</v>
       </c>
-      <c r="O13" t="n">
+      <c r="P13" t="n">
         <v>0.9563233105256725</v>
       </c>
-      <c r="P13" t="n">
+      <c r="Q13" t="n">
         <v>0.5737939863154036</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="R13" t="n">
         <v>7.268057159995112</v>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>98.88383030835455</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>1.5301172968410761</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>24.290612087352084</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>83.39139267783865</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>107.68200476519074</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" t="n">
         <v>3.58239823E8</v>
@@ -1212,19 +1254,19 @@
         <v>0.0</v>
       </c>
       <c r="I14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J14" t="s">
-        <v>79</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.7914261223828265</v>
+        <v>80</v>
+      </c>
+      <c r="K14" t="s">
+        <v>79</v>
       </c>
       <c r="L14" t="n">
         <v>2.7914261223828265</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0</v>
+        <v>2.7914261223828265</v>
       </c>
       <c r="N14" t="n">
         <v>0.0</v>
@@ -1236,27 +1278,30 @@
         <v>0.0</v>
       </c>
       <c r="Q14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R14" t="n">
         <v>5.582852244765653</v>
       </c>
-      <c r="R14" t="n">
-        <v>0.0</v>
-      </c>
       <c r="S14" t="n">
         <v>0.0</v>
       </c>
       <c r="T14" t="n">
-        <v>2.7914261223828265</v>
+        <v>0.0</v>
       </c>
       <c r="U14" t="n">
         <v>2.7914261223828265</v>
       </c>
       <c r="V14" t="n">
+        <v>2.7914261223828265</v>
+      </c>
+      <c r="W14" t="n">
         <v>5.582852244765653</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" t="n">
         <v>3.96922563E8</v>
@@ -1280,51 +1325,54 @@
         <v>0.0</v>
       </c>
       <c r="I15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J15" t="s">
-        <v>78</v>
-      </c>
-      <c r="K15" t="n">
+        <v>79</v>
+      </c>
+      <c r="K15" t="s">
+        <v>79</v>
+      </c>
+      <c r="L15" t="n">
         <v>12.596915534882303</v>
       </c>
-      <c r="L15" t="n">
-        <v>0.0</v>
-      </c>
       <c r="M15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N15" t="n">
         <v>813.7607435533969</v>
       </c>
-      <c r="N15" t="n">
-        <v>0.0</v>
-      </c>
       <c r="O15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P15" t="n">
         <v>7.558149320929382</v>
       </c>
-      <c r="P15" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Q15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R15" t="n">
         <v>12.596915534882303</v>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>813.7607435533969</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>7.558149320929382</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>833.9158084092086</v>
       </c>
-      <c r="U15" t="n">
-        <v>0.0</v>
-      </c>
       <c r="V15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W15" t="n">
         <v>833.9158084092086</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" t="n">
         <v>3.179760952E9</v>
@@ -1348,20 +1396,20 @@
         <v>0.0</v>
       </c>
       <c r="I16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J16" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" t="n">
+        <v>80</v>
+      </c>
+      <c r="K16" t="s">
+        <v>79</v>
+      </c>
+      <c r="L16" t="n">
         <v>1.2579561987149026</v>
       </c>
-      <c r="L16" t="n">
+      <c r="M16" t="n">
         <v>1.886934298072354</v>
       </c>
-      <c r="M16" t="n">
-        <v>0.0</v>
-      </c>
       <c r="N16" t="n">
         <v>0.0</v>
       </c>
@@ -1372,27 +1420,30 @@
         <v>0.0</v>
       </c>
       <c r="Q16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R16" t="n">
         <v>3.144890496787257</v>
       </c>
-      <c r="R16" t="n">
-        <v>0.0</v>
-      </c>
       <c r="S16" t="n">
         <v>0.0</v>
       </c>
       <c r="T16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U16" t="n">
         <v>1.2579561987149026</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>1.886934298072354</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>3.144890496787257</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" t="n">
         <v>2.582459303E9</v>
@@ -1416,20 +1467,20 @@
         <v>0.0</v>
       </c>
       <c r="I17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J17" t="s">
-        <v>78</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.0</v>
+        <v>79</v>
+      </c>
+      <c r="K17" t="s">
+        <v>79</v>
       </c>
       <c r="L17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M17" t="n">
         <v>0.7744555732888543</v>
       </c>
-      <c r="M17" t="n">
-        <v>0.0</v>
-      </c>
       <c r="N17" t="n">
         <v>0.0</v>
       </c>
@@ -1440,11 +1491,11 @@
         <v>0.0</v>
       </c>
       <c r="Q17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R17" t="n">
         <v>0.7744555732888543</v>
       </c>
-      <c r="R17" t="n">
-        <v>0.0</v>
-      </c>
       <c r="S17" t="n">
         <v>0.0</v>
       </c>
@@ -1452,15 +1503,18 @@
         <v>0.0</v>
       </c>
       <c r="U17" t="n">
-        <v>0.7744555732888543</v>
+        <v>0.0</v>
       </c>
       <c r="V17" t="n">
         <v>0.7744555732888543</v>
       </c>
+      <c r="W17" t="n">
+        <v>0.7744555732888543</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B18" t="n">
         <v>8.13216487E8</v>
@@ -1484,51 +1538,54 @@
         <v>225.0</v>
       </c>
       <c r="I18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J18" t="s">
-        <v>78</v>
-      </c>
-      <c r="K18" t="n">
+        <v>79</v>
+      </c>
+      <c r="K18" t="s">
+        <v>79</v>
+      </c>
+      <c r="L18" t="n">
         <v>14.756218290985043</v>
       </c>
-      <c r="L18" t="n">
+      <c r="M18" t="n">
         <v>2.459369715164174</v>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
         <v>657.8813988064165</v>
       </c>
-      <c r="N18" t="n">
+      <c r="O18" t="n">
         <v>276.67909295596957</v>
       </c>
-      <c r="O18" t="n">
+      <c r="P18" t="n">
         <v>7.378109145492521</v>
       </c>
-      <c r="P18" t="n">
+      <c r="Q18" t="n">
         <v>1.229684857582087</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="R18" t="n">
         <v>17.21558800614922</v>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>934.5604917623862</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>8.60779400307461</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>680.0157262428942</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>280.36814752871584</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>960.3838737716101</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B19" t="n">
         <v>4.1798261E8</v>
@@ -1552,51 +1609,54 @@
         <v>0.0</v>
       </c>
       <c r="I19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J19" t="s">
-        <v>78</v>
-      </c>
-      <c r="K19" t="n">
+        <v>79</v>
+      </c>
+      <c r="K19" t="s">
+        <v>79</v>
+      </c>
+      <c r="L19" t="n">
         <v>4.78488806029514</v>
       </c>
-      <c r="L19" t="n">
-        <v>0.0</v>
-      </c>
       <c r="M19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N19" t="n">
         <v>38.27910448236112</v>
       </c>
-      <c r="N19" t="n">
-        <v>0.0</v>
-      </c>
       <c r="O19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P19" t="n">
         <v>2.39244403014757</v>
       </c>
-      <c r="P19" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Q19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R19" t="n">
         <v>4.78488806029514</v>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>38.27910448236112</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>2.39244403014757</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>45.45643657280383</v>
       </c>
-      <c r="U19" t="n">
-        <v>0.0</v>
-      </c>
       <c r="V19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W19" t="n">
         <v>45.45643657280383</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B20" t="n">
         <v>5.50491507E8</v>
@@ -1620,51 +1680,54 @@
         <v>0.0</v>
       </c>
       <c r="I20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J20" t="s">
-        <v>78</v>
-      </c>
-      <c r="K20" t="n">
+        <v>79</v>
+      </c>
+      <c r="K20" t="s">
+        <v>79</v>
+      </c>
+      <c r="L20" t="n">
         <v>5.449675357116817</v>
       </c>
-      <c r="L20" t="n">
-        <v>0.0</v>
-      </c>
       <c r="M20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N20" t="n">
         <v>85.3782472614968</v>
       </c>
-      <c r="N20" t="n">
-        <v>0.0</v>
-      </c>
       <c r="O20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P20" t="n">
         <v>1.8165584523722724</v>
       </c>
-      <c r="P20" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Q20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R20" t="n">
         <v>5.449675357116817</v>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>85.3782472614968</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>1.8165584523722724</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>92.64448107098589</v>
       </c>
-      <c r="U20" t="n">
-        <v>0.0</v>
-      </c>
       <c r="V20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W20" t="n">
         <v>92.64448107098589</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B21" t="n">
         <v>6.525658894E9</v>
@@ -1688,51 +1751,54 @@
         <v>51.0</v>
       </c>
       <c r="I21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J21" t="s">
-        <v>79</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3.6777895366346436</v>
+        <v>80</v>
+      </c>
+      <c r="K21" t="s">
+        <v>80</v>
       </c>
       <c r="L21" t="n">
         <v>3.6777895366346436</v>
       </c>
       <c r="M21" t="n">
+        <v>3.6777895366346436</v>
+      </c>
+      <c r="N21" t="n">
         <v>62.36918089209583</v>
       </c>
-      <c r="N21" t="n">
+      <c r="O21" t="n">
         <v>7.815302765348618</v>
       </c>
-      <c r="O21" t="n">
+      <c r="P21" t="n">
         <v>1.8388947683173218</v>
       </c>
-      <c r="P21" t="n">
+      <c r="Q21" t="n">
         <v>0.3064824613862203</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="R21" t="n">
         <v>7.355579073269287</v>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>70.18448365744445</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>2.1453772297035423</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>67.88586519704779</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>11.799574763369483</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>79.68543996041727</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B22" t="n">
         <v>5.57699891E8</v>
@@ -1756,51 +1822,54 @@
         <v>14.0</v>
       </c>
       <c r="I22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J22" t="s">
-        <v>78</v>
-      </c>
-      <c r="K22" t="n">
+        <v>79</v>
+      </c>
+      <c r="K22" t="s">
+        <v>79</v>
+      </c>
+      <c r="L22" t="n">
         <v>14.344632532840139</v>
       </c>
-      <c r="L22" t="n">
+      <c r="M22" t="n">
         <v>7.1723162664200695</v>
       </c>
-      <c r="M22" t="n">
+      <c r="N22" t="n">
         <v>505.648296782615</v>
       </c>
-      <c r="N22" t="n">
+      <c r="O22" t="n">
         <v>25.103106932470247</v>
       </c>
-      <c r="O22" t="n">
+      <c r="P22" t="n">
         <v>5.379237199815052</v>
       </c>
-      <c r="P22" t="n">
+      <c r="Q22" t="n">
         <v>1.7930790666050174</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="R22" t="n">
         <v>21.51694879926021</v>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>530.7514037150852</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>7.1723162664200695</v>
       </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
         <v>525.3721665152702</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>34.06850226549533</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>559.4406687807656</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B23" t="n">
         <v>3.35448023E8</v>
@@ -1824,51 +1893,54 @@
         <v>0.0</v>
       </c>
       <c r="I23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J23" t="s">
-        <v>78</v>
-      </c>
-      <c r="K23" t="n">
-        <v>2.9810877734700494</v>
+        <v>79</v>
+      </c>
+      <c r="K23" t="s">
+        <v>79</v>
       </c>
       <c r="L23" t="n">
         <v>2.9810877734700494</v>
       </c>
       <c r="M23" t="n">
+        <v>2.9810877734700494</v>
+      </c>
+      <c r="N23" t="n">
         <v>11.924351093880198</v>
       </c>
-      <c r="N23" t="n">
-        <v>0.0</v>
-      </c>
       <c r="O23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P23" t="n">
         <v>2.9810877734700494</v>
       </c>
-      <c r="P23" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Q23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R23" t="n">
         <v>5.962175546940099</v>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>11.924351093880198</v>
       </c>
-      <c r="S23" t="n">
+      <c r="T23" t="n">
         <v>2.9810877734700494</v>
       </c>
-      <c r="T23" t="n">
+      <c r="U23" t="n">
         <v>17.886526640820296</v>
       </c>
-      <c r="U23" t="n">
+      <c r="V23" t="n">
         <v>2.9810877734700494</v>
       </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
         <v>20.867614414290344</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B24" t="n">
         <v>4.88560643E8</v>
@@ -1892,51 +1964,54 @@
         <v>92.0</v>
       </c>
       <c r="I24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J24" t="s">
-        <v>78</v>
-      </c>
-      <c r="K24" t="n">
+        <v>79</v>
+      </c>
+      <c r="K24" t="s">
+        <v>79</v>
+      </c>
+      <c r="L24" t="n">
         <v>51.17072027433041</v>
       </c>
-      <c r="L24" t="n">
+      <c r="M24" t="n">
         <v>10.234144054866082</v>
       </c>
-      <c r="M24" t="n">
+      <c r="N24" t="n">
         <v>341.8204114325271</v>
       </c>
-      <c r="N24" t="n">
+      <c r="O24" t="n">
         <v>188.3082506095359</v>
       </c>
-      <c r="O24" t="n">
+      <c r="P24" t="n">
         <v>10.234144054866082</v>
       </c>
-      <c r="P24" t="n">
+      <c r="Q24" t="n">
         <v>4.0936576219464325</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="R24" t="n">
         <v>61.404864329196485</v>
       </c>
-      <c r="R24" t="n">
+      <c r="S24" t="n">
         <v>530.1286620420631</v>
       </c>
-      <c r="S24" t="n">
+      <c r="T24" t="n">
         <v>14.327801676812514</v>
       </c>
-      <c r="T24" t="n">
+      <c r="U24" t="n">
         <v>403.2252757617236</v>
       </c>
-      <c r="U24" t="n">
+      <c r="V24" t="n">
         <v>202.6360522863484</v>
       </c>
-      <c r="V24" t="n">
+      <c r="W24" t="n">
         <v>605.861328048072</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B25" t="n">
         <v>5.0646495E8</v>
@@ -1960,17 +2035,17 @@
         <v>0.0</v>
       </c>
       <c r="I25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J25" t="s">
-        <v>79</v>
-      </c>
-      <c r="K25" t="n">
+        <v>80</v>
+      </c>
+      <c r="K25" t="s">
+        <v>79</v>
+      </c>
+      <c r="L25" t="n">
         <v>1.9744702965131151</v>
       </c>
-      <c r="L25" t="n">
-        <v>0.0</v>
-      </c>
       <c r="M25" t="n">
         <v>0.0</v>
       </c>
@@ -1984,27 +2059,30 @@
         <v>0.0</v>
       </c>
       <c r="Q25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R25" t="n">
         <v>1.9744702965131151</v>
       </c>
-      <c r="R25" t="n">
-        <v>0.0</v>
-      </c>
       <c r="S25" t="n">
         <v>0.0</v>
       </c>
       <c r="T25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U25" t="n">
         <v>1.9744702965131151</v>
       </c>
-      <c r="U25" t="n">
-        <v>0.0</v>
-      </c>
       <c r="V25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W25" t="n">
         <v>1.9744702965131151</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B26" t="n">
         <v>6.13356665E8</v>
@@ -2028,51 +2106,54 @@
         <v>22.0</v>
       </c>
       <c r="I26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J26" t="s">
-        <v>78</v>
-      </c>
-      <c r="K26" t="n">
+        <v>79</v>
+      </c>
+      <c r="K26" t="s">
+        <v>79</v>
+      </c>
+      <c r="L26" t="n">
         <v>16.303727619883286</v>
       </c>
-      <c r="L26" t="n">
+      <c r="M26" t="n">
         <v>6.521491047953314</v>
       </c>
-      <c r="M26" t="n">
+      <c r="N26" t="n">
         <v>423.8969181169654</v>
       </c>
-      <c r="N26" t="n">
+      <c r="O26" t="n">
         <v>35.86820076374323</v>
       </c>
-      <c r="O26" t="n">
+      <c r="P26" t="n">
         <v>4.891118285964986</v>
       </c>
-      <c r="P26" t="n">
+      <c r="Q26" t="n">
         <v>3.260745523976657</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="R26" t="n">
         <v>22.8252186678366</v>
       </c>
-      <c r="R26" t="n">
+      <c r="S26" t="n">
         <v>459.76511888070866</v>
       </c>
-      <c r="S26" t="n">
+      <c r="T26" t="n">
         <v>8.151863809941643</v>
       </c>
-      <c r="T26" t="n">
+      <c r="U26" t="n">
         <v>445.09176402281366</v>
       </c>
-      <c r="U26" t="n">
+      <c r="V26" t="n">
         <v>45.6504373356732</v>
       </c>
-      <c r="V26" t="n">
+      <c r="W26" t="n">
         <v>490.74220135848685</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B27" t="n">
         <v>3.01379762E8</v>
@@ -2096,51 +2177,54 @@
         <v>143.0</v>
       </c>
       <c r="I27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J27" t="s">
-        <v>78</v>
-      </c>
-      <c r="K27" t="n">
+        <v>79</v>
+      </c>
+      <c r="K27" t="s">
+        <v>79</v>
+      </c>
+      <c r="L27" t="n">
         <v>3.3180728306501215</v>
       </c>
-      <c r="L27" t="n">
+      <c r="M27" t="n">
         <v>9.954218491950366</v>
       </c>
-      <c r="M27" t="n">
-        <v>0.0</v>
-      </c>
       <c r="N27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O27" t="n">
         <v>474.4844147829674</v>
       </c>
-      <c r="O27" t="n">
-        <v>0.0</v>
-      </c>
       <c r="P27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q27" t="n">
         <v>3.3180728306501215</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="R27" t="n">
         <v>13.272291322600488</v>
       </c>
-      <c r="R27" t="n">
+      <c r="S27" t="n">
         <v>474.4844147829674</v>
-      </c>
-      <c r="S27" t="n">
-        <v>3.3180728306501215</v>
       </c>
       <c r="T27" t="n">
         <v>3.3180728306501215</v>
       </c>
       <c r="U27" t="n">
+        <v>3.3180728306501215</v>
+      </c>
+      <c r="V27" t="n">
         <v>487.7567061055679</v>
       </c>
-      <c r="V27" t="n">
+      <c r="W27" t="n">
         <v>491.074778936218</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B28" t="n">
         <v>4.93877795E8</v>
@@ -2164,20 +2248,20 @@
         <v>0.0</v>
       </c>
       <c r="I28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J28" t="s">
-        <v>79</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.0</v>
+        <v>80</v>
+      </c>
+      <c r="K28" t="s">
+        <v>80</v>
       </c>
       <c r="L28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M28" t="n">
         <v>2.0247923881655785</v>
       </c>
-      <c r="M28" t="n">
-        <v>0.0</v>
-      </c>
       <c r="N28" t="n">
         <v>0.0</v>
       </c>
@@ -2188,11 +2272,11 @@
         <v>0.0</v>
       </c>
       <c r="Q28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R28" t="n">
         <v>2.0247923881655785</v>
       </c>
-      <c r="R28" t="n">
-        <v>0.0</v>
-      </c>
       <c r="S28" t="n">
         <v>0.0</v>
       </c>
@@ -2200,15 +2284,18 @@
         <v>0.0</v>
       </c>
       <c r="U28" t="n">
-        <v>2.0247923881655785</v>
+        <v>0.0</v>
       </c>
       <c r="V28" t="n">
         <v>2.0247923881655785</v>
       </c>
+      <c r="W28" t="n">
+        <v>2.0247923881655785</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B29" t="n">
         <v>1.173203126E9</v>
@@ -2232,51 +2319,54 @@
         <v>0.0</v>
       </c>
       <c r="I29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J29" t="s">
-        <v>78</v>
-      </c>
-      <c r="K29" t="n">
+        <v>79</v>
+      </c>
+      <c r="K29" t="s">
+        <v>79</v>
+      </c>
+      <c r="L29" t="n">
         <v>3.4094692652566287</v>
       </c>
-      <c r="L29" t="n">
+      <c r="M29" t="n">
         <v>4.261836581570786</v>
       </c>
-      <c r="M29" t="n">
+      <c r="N29" t="n">
         <v>126.15036281449525</v>
       </c>
-      <c r="N29" t="n">
-        <v>0.0</v>
-      </c>
       <c r="O29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P29" t="n">
         <v>0.8523673163141572</v>
       </c>
-      <c r="P29" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Q29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R29" t="n">
         <v>7.671305846827415</v>
       </c>
-      <c r="R29" t="n">
+      <c r="S29" t="n">
         <v>126.15036281449525</v>
       </c>
-      <c r="S29" t="n">
+      <c r="T29" t="n">
         <v>0.8523673163141572</v>
       </c>
-      <c r="T29" t="n">
+      <c r="U29" t="n">
         <v>130.41219939606603</v>
       </c>
-      <c r="U29" t="n">
+      <c r="V29" t="n">
         <v>4.261836581570786</v>
       </c>
-      <c r="V29" t="n">
+      <c r="W29" t="n">
         <v>134.6740359776368</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B30" t="n">
         <v>1.574217531E9</v>
@@ -2300,51 +2390,54 @@
         <v>0.0</v>
       </c>
       <c r="I30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J30" t="s">
-        <v>79</v>
-      </c>
-      <c r="K30" t="n">
+        <v>80</v>
+      </c>
+      <c r="K30" t="s">
+        <v>79</v>
+      </c>
+      <c r="L30" t="n">
         <v>1.9057086717197789</v>
       </c>
-      <c r="L30" t="n">
-        <v>0.0</v>
-      </c>
       <c r="M30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N30" t="n">
         <v>330.32283643142836</v>
       </c>
-      <c r="N30" t="n">
-        <v>0.0</v>
-      </c>
       <c r="O30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P30" t="n">
         <v>0.635236223906593</v>
       </c>
-      <c r="P30" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Q30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R30" t="n">
         <v>1.9057086717197789</v>
       </c>
-      <c r="R30" t="n">
+      <c r="S30" t="n">
         <v>330.32283643142836</v>
       </c>
-      <c r="S30" t="n">
+      <c r="T30" t="n">
         <v>0.635236223906593</v>
       </c>
-      <c r="T30" t="n">
+      <c r="U30" t="n">
         <v>332.8637813270547</v>
       </c>
-      <c r="U30" t="n">
-        <v>0.0</v>
-      </c>
       <c r="V30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W30" t="n">
         <v>332.8637813270547</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B31" t="n">
         <v>2.77414794E8</v>
@@ -2368,51 +2461,54 @@
         <v>283.0</v>
       </c>
       <c r="I31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J31" t="s">
-        <v>78</v>
-      </c>
-      <c r="K31" t="n">
-        <v>7.209420850136781</v>
+        <v>79</v>
+      </c>
+      <c r="K31" t="s">
+        <v>79</v>
       </c>
       <c r="L31" t="n">
         <v>7.209420850136781</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0</v>
+        <v>7.209420850136781</v>
       </c>
       <c r="N31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O31" t="n">
         <v>1020.1330502943546</v>
       </c>
-      <c r="O31" t="n">
-        <v>0.0</v>
-      </c>
       <c r="P31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q31" t="n">
         <v>7.209420850136781</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="R31" t="n">
         <v>14.418841700273562</v>
       </c>
-      <c r="R31" t="n">
+      <c r="S31" t="n">
         <v>1020.1330502943546</v>
-      </c>
-      <c r="S31" t="n">
-        <v>7.209420850136781</v>
       </c>
       <c r="T31" t="n">
         <v>7.209420850136781</v>
       </c>
       <c r="U31" t="n">
+        <v>7.209420850136781</v>
+      </c>
+      <c r="V31" t="n">
         <v>1034.5518919946282</v>
       </c>
-      <c r="V31" t="n">
+      <c r="W31" t="n">
         <v>1041.7613128447651</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B32" t="n">
         <v>1.874561773E9</v>
@@ -2436,51 +2532,54 @@
         <v>0.0</v>
       </c>
       <c r="I32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J32" t="s">
-        <v>79</v>
-      </c>
-      <c r="K32" t="n">
+        <v>80</v>
+      </c>
+      <c r="K32" t="s">
+        <v>79</v>
+      </c>
+      <c r="L32" t="n">
         <v>3.7342060959652357</v>
       </c>
-      <c r="L32" t="n">
+      <c r="M32" t="n">
         <v>0.5334580137093193</v>
       </c>
-      <c r="M32" t="n">
+      <c r="N32" t="n">
         <v>1.6003740411279581</v>
       </c>
-      <c r="N32" t="n">
-        <v>0.0</v>
-      </c>
       <c r="O32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P32" t="n">
         <v>0.5334580137093193</v>
       </c>
-      <c r="P32" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Q32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R32" t="n">
         <v>4.267664109674555</v>
       </c>
-      <c r="R32" t="n">
+      <c r="S32" t="n">
         <v>1.6003740411279581</v>
       </c>
-      <c r="S32" t="n">
+      <c r="T32" t="n">
         <v>0.5334580137093193</v>
       </c>
-      <c r="T32" t="n">
+      <c r="U32" t="n">
         <v>5.868038150802513</v>
       </c>
-      <c r="U32" t="n">
+      <c r="V32" t="n">
         <v>0.5334580137093193</v>
       </c>
-      <c r="V32" t="n">
+      <c r="W32" t="n">
         <v>6.4014961645118325</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B33" t="n">
         <v>1.734522605E9</v>
@@ -2504,51 +2603,54 @@
         <v>0.0</v>
       </c>
       <c r="I33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J33" t="s">
-        <v>78</v>
-      </c>
-      <c r="K33" t="n">
+        <v>79</v>
+      </c>
+      <c r="K33" t="s">
+        <v>79</v>
+      </c>
+      <c r="L33" t="n">
         <v>6.918330130381898</v>
       </c>
-      <c r="L33" t="n">
+      <c r="M33" t="n">
         <v>0.5765275108651582</v>
       </c>
-      <c r="M33" t="n">
+      <c r="N33" t="n">
         <v>245.02419211769222</v>
       </c>
-      <c r="N33" t="n">
-        <v>0.0</v>
-      </c>
       <c r="O33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P33" t="n">
         <v>2.882637554325791</v>
       </c>
-      <c r="P33" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Q33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R33" t="n">
         <v>7.494857641247057</v>
       </c>
-      <c r="R33" t="n">
+      <c r="S33" t="n">
         <v>245.02419211769222</v>
       </c>
-      <c r="S33" t="n">
+      <c r="T33" t="n">
         <v>2.882637554325791</v>
       </c>
-      <c r="T33" t="n">
+      <c r="U33" t="n">
         <v>254.8251598023999</v>
       </c>
-      <c r="U33" t="n">
+      <c r="V33" t="n">
         <v>0.5765275108651582</v>
       </c>
-      <c r="V33" t="n">
+      <c r="W33" t="n">
         <v>255.40168731326506</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B34" t="n">
         <v>1.001965891E9</v>
@@ -2572,51 +2674,54 @@
         <v>0.0</v>
       </c>
       <c r="I34" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J34" t="s">
-        <v>78</v>
-      </c>
-      <c r="K34" t="n">
+        <v>79</v>
+      </c>
+      <c r="K34" t="s">
+        <v>79</v>
+      </c>
+      <c r="L34" t="n">
         <v>2.9941138984340934</v>
       </c>
-      <c r="L34" t="n">
-        <v>0.0</v>
-      </c>
       <c r="M34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N34" t="n">
         <v>20.958797289038657</v>
       </c>
-      <c r="N34" t="n">
-        <v>0.0</v>
-      </c>
       <c r="O34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P34" t="n">
         <v>1.9960759322893955</v>
       </c>
-      <c r="P34" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Q34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R34" t="n">
         <v>2.9941138984340934</v>
       </c>
-      <c r="R34" t="n">
+      <c r="S34" t="n">
         <v>20.958797289038657</v>
       </c>
-      <c r="S34" t="n">
+      <c r="T34" t="n">
         <v>1.9960759322893955</v>
       </c>
-      <c r="T34" t="n">
+      <c r="U34" t="n">
         <v>25.948987119762148</v>
       </c>
-      <c r="U34" t="n">
-        <v>0.0</v>
-      </c>
       <c r="V34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W34" t="n">
         <v>25.948987119762148</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B35" t="n">
         <v>3.426529504E9</v>
@@ -2640,51 +2745,54 @@
         <v>0.0</v>
       </c>
       <c r="I35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J35" t="s">
-        <v>79</v>
-      </c>
-      <c r="K35" t="n">
+        <v>80</v>
+      </c>
+      <c r="K35" t="s">
+        <v>79</v>
+      </c>
+      <c r="L35" t="n">
         <v>1.7510428534165046</v>
       </c>
-      <c r="L35" t="n">
+      <c r="M35" t="n">
         <v>0.8755214267082523</v>
       </c>
-      <c r="M35" t="n">
+      <c r="N35" t="n">
         <v>0.5836809511388349</v>
       </c>
-      <c r="N35" t="n">
-        <v>0.0</v>
-      </c>
       <c r="O35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P35" t="n">
         <v>0.29184047556941745</v>
       </c>
-      <c r="P35" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Q35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R35" t="n">
         <v>2.626564280124757</v>
       </c>
-      <c r="R35" t="n">
+      <c r="S35" t="n">
         <v>0.5836809511388349</v>
       </c>
-      <c r="S35" t="n">
+      <c r="T35" t="n">
         <v>0.29184047556941745</v>
       </c>
-      <c r="T35" t="n">
+      <c r="U35" t="n">
         <v>2.626564280124757</v>
       </c>
-      <c r="U35" t="n">
+      <c r="V35" t="n">
         <v>0.8755214267082523</v>
       </c>
-      <c r="V35" t="n">
+      <c r="W35" t="n">
         <v>3.502085706833009</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B36" t="n">
         <v>1.039171244E9</v>
@@ -2708,51 +2816,54 @@
         <v>537.0</v>
       </c>
       <c r="I36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J36" t="s">
-        <v>78</v>
-      </c>
-      <c r="K36" t="n">
-        <v>2.8869159123883534</v>
+        <v>79</v>
+      </c>
+      <c r="K36" t="s">
+        <v>79</v>
       </c>
       <c r="L36" t="n">
         <v>2.8869159123883534</v>
       </c>
       <c r="M36" t="n">
+        <v>2.8869159123883534</v>
+      </c>
+      <c r="N36" t="n">
         <v>32.71838034040134</v>
       </c>
-      <c r="N36" t="n">
+      <c r="O36" t="n">
         <v>516.7579483175152</v>
       </c>
-      <c r="O36" t="n">
+      <c r="P36" t="n">
         <v>0.9623053041294511</v>
       </c>
-      <c r="P36" t="n">
+      <c r="Q36" t="n">
         <v>1.9246106082589023</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="R36" t="n">
         <v>5.773831824776707</v>
       </c>
-      <c r="R36" t="n">
+      <c r="S36" t="n">
         <v>549.4763286579166</v>
       </c>
-      <c r="S36" t="n">
+      <c r="T36" t="n">
         <v>2.8869159123883534</v>
       </c>
-      <c r="T36" t="n">
+      <c r="U36" t="n">
         <v>36.56760155691914</v>
       </c>
-      <c r="U36" t="n">
+      <c r="V36" t="n">
         <v>521.5694748381625</v>
       </c>
-      <c r="V36" t="n">
+      <c r="W36" t="n">
         <v>558.1370763950816</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B37" t="n">
         <v>3.48563137E8</v>
@@ -2776,51 +2887,54 @@
         <v>46.0</v>
       </c>
       <c r="I37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J37" t="s">
-        <v>78</v>
-      </c>
-      <c r="K37" t="n">
+        <v>79</v>
+      </c>
+      <c r="K37" t="s">
+        <v>79</v>
+      </c>
+      <c r="L37" t="n">
         <v>22.951365623037756</v>
       </c>
-      <c r="L37" t="n">
+      <c r="M37" t="n">
         <v>28.6892070287972</v>
       </c>
-      <c r="M37" t="n">
+      <c r="N37" t="n">
         <v>671.3274444738545</v>
       </c>
-      <c r="N37" t="n">
+      <c r="O37" t="n">
         <v>131.9703523324671</v>
       </c>
-      <c r="O37" t="n">
+      <c r="P37" t="n">
         <v>8.60676210863916</v>
       </c>
-      <c r="P37" t="n">
+      <c r="Q37" t="n">
         <v>5.737841405759439</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="R37" t="n">
         <v>51.64057265183496</v>
       </c>
-      <c r="R37" t="n">
+      <c r="S37" t="n">
         <v>803.2977968063216</v>
       </c>
-      <c r="S37" t="n">
+      <c r="T37" t="n">
         <v>14.3446035143986</v>
       </c>
-      <c r="T37" t="n">
+      <c r="U37" t="n">
         <v>702.8855722055314</v>
       </c>
-      <c r="U37" t="n">
+      <c r="V37" t="n">
         <v>166.39740076702373</v>
       </c>
-      <c r="V37" t="n">
+      <c r="W37" t="n">
         <v>869.2829729725552</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B38" t="n">
         <v>4.13007158E8</v>
@@ -2844,51 +2958,54 @@
         <v>1.0</v>
       </c>
       <c r="I38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J38" t="s">
-        <v>78</v>
-      </c>
-      <c r="K38" t="n">
+        <v>79</v>
+      </c>
+      <c r="K38" t="s">
+        <v>79</v>
+      </c>
+      <c r="L38" t="n">
         <v>16.948858789512794</v>
       </c>
-      <c r="L38" t="n">
+      <c r="M38" t="n">
         <v>4.842531082717941</v>
       </c>
-      <c r="M38" t="n">
+      <c r="N38" t="n">
         <v>179.17365006056386</v>
       </c>
-      <c r="N38" t="n">
+      <c r="O38" t="n">
         <v>2.4212655413589705</v>
       </c>
-      <c r="O38" t="n">
+      <c r="P38" t="n">
         <v>9.685062165435882</v>
       </c>
-      <c r="P38" t="n">
+      <c r="Q38" t="n">
         <v>2.4212655413589705</v>
       </c>
-      <c r="Q38" t="n">
+      <c r="R38" t="n">
         <v>21.791389872230734</v>
       </c>
-      <c r="R38" t="n">
+      <c r="S38" t="n">
         <v>181.59491560192282</v>
       </c>
-      <c r="S38" t="n">
+      <c r="T38" t="n">
         <v>12.106327706794852</v>
       </c>
-      <c r="T38" t="n">
+      <c r="U38" t="n">
         <v>205.80757101551254</v>
       </c>
-      <c r="U38" t="n">
+      <c r="V38" t="n">
         <v>9.685062165435882</v>
       </c>
-      <c r="V38" t="n">
+      <c r="W38" t="n">
         <v>215.49263318094842</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B39" t="n">
         <v>1.917428984E9</v>
@@ -2912,20 +3029,20 @@
         <v>0.0</v>
       </c>
       <c r="I39" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J39" t="s">
-        <v>79</v>
-      </c>
-      <c r="K39" t="n">
+        <v>80</v>
+      </c>
+      <c r="K39" t="s">
+        <v>79</v>
+      </c>
+      <c r="L39" t="n">
         <v>0.5215317012231</v>
       </c>
-      <c r="L39" t="n">
+      <c r="M39" t="n">
         <v>2.607658506115499</v>
       </c>
-      <c r="M39" t="n">
-        <v>0.0</v>
-      </c>
       <c r="N39" t="n">
         <v>0.0</v>
       </c>
@@ -2936,27 +3053,30 @@
         <v>0.0</v>
       </c>
       <c r="Q39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R39" t="n">
         <v>3.129190207338599</v>
       </c>
-      <c r="R39" t="n">
-        <v>0.0</v>
-      </c>
       <c r="S39" t="n">
         <v>0.0</v>
       </c>
       <c r="T39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U39" t="n">
         <v>0.5215317012231</v>
       </c>
-      <c r="U39" t="n">
+      <c r="V39" t="n">
         <v>2.607658506115499</v>
       </c>
-      <c r="V39" t="n">
+      <c r="W39" t="n">
         <v>3.129190207338599</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B40" t="n">
         <v>2.95705339E8</v>
@@ -2980,51 +3100,54 @@
         <v>0.0</v>
       </c>
       <c r="I40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J40" t="s">
-        <v>78</v>
-      </c>
-      <c r="K40" t="n">
+        <v>79</v>
+      </c>
+      <c r="K40" t="s">
+        <v>79</v>
+      </c>
+      <c r="L40" t="n">
         <v>16.908724126891737</v>
       </c>
-      <c r="L40" t="n">
+      <c r="M40" t="n">
         <v>10.145234476135041</v>
       </c>
-      <c r="M40" t="n">
+      <c r="N40" t="n">
         <v>172.4689860942957</v>
       </c>
-      <c r="N40" t="n">
-        <v>0.0</v>
-      </c>
       <c r="O40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P40" t="n">
         <v>10.145234476135041</v>
       </c>
-      <c r="P40" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Q40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R40" t="n">
         <v>27.05395860302678</v>
       </c>
-      <c r="R40" t="n">
+      <c r="S40" t="n">
         <v>172.4689860942957</v>
       </c>
-      <c r="S40" t="n">
+      <c r="T40" t="n">
         <v>10.145234476135041</v>
       </c>
-      <c r="T40" t="n">
+      <c r="U40" t="n">
         <v>199.5229446973225</v>
       </c>
-      <c r="U40" t="n">
+      <c r="V40" t="n">
         <v>10.145234476135041</v>
       </c>
-      <c r="V40" t="n">
+      <c r="W40" t="n">
         <v>209.66817917345753</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B41" t="n">
         <v>6.82971852E8</v>
@@ -3048,51 +3171,54 @@
         <v>110.0</v>
       </c>
       <c r="I41" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J41" t="s">
-        <v>78</v>
-      </c>
-      <c r="K41" t="n">
+        <v>79</v>
+      </c>
+      <c r="K41" t="s">
+        <v>79</v>
+      </c>
+      <c r="L41" t="n">
         <v>7.32094592970136</v>
       </c>
-      <c r="L41" t="n">
+      <c r="M41" t="n">
         <v>8.785135115641632</v>
       </c>
-      <c r="M41" t="n">
-        <v>0.0</v>
-      </c>
       <c r="N41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O41" t="n">
         <v>161.06081045342992</v>
       </c>
-      <c r="O41" t="n">
-        <v>0.0</v>
-      </c>
       <c r="P41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q41" t="n">
         <v>1.4641891859402723</v>
       </c>
-      <c r="Q41" t="n">
+      <c r="R41" t="n">
         <v>16.106081045342993</v>
       </c>
-      <c r="R41" t="n">
+      <c r="S41" t="n">
         <v>161.06081045342992</v>
       </c>
-      <c r="S41" t="n">
+      <c r="T41" t="n">
         <v>1.4641891859402723</v>
       </c>
-      <c r="T41" t="n">
+      <c r="U41" t="n">
         <v>7.32094592970136</v>
       </c>
-      <c r="U41" t="n">
+      <c r="V41" t="n">
         <v>171.31013475501183</v>
       </c>
-      <c r="V41" t="n">
+      <c r="W41" t="n">
         <v>178.6310806847132</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B42" t="n">
         <v>8.59673901E8</v>
@@ -3116,51 +3242,54 @@
         <v>0.0</v>
       </c>
       <c r="I42" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J42" t="s">
-        <v>78</v>
-      </c>
-      <c r="K42" t="n">
+        <v>79</v>
+      </c>
+      <c r="K42" t="s">
+        <v>79</v>
+      </c>
+      <c r="L42" t="n">
         <v>8.142622443065187</v>
       </c>
-      <c r="L42" t="n">
+      <c r="M42" t="n">
         <v>12.795549553388152</v>
       </c>
-      <c r="M42" t="n">
+      <c r="N42" t="n">
         <v>364.0915463827719</v>
       </c>
-      <c r="N42" t="n">
-        <v>0.0</v>
-      </c>
       <c r="O42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P42" t="n">
         <v>2.326463555161482</v>
       </c>
-      <c r="P42" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Q42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R42" t="n">
         <v>20.93817199645334</v>
       </c>
-      <c r="R42" t="n">
+      <c r="S42" t="n">
         <v>364.0915463827719</v>
       </c>
-      <c r="S42" t="n">
+      <c r="T42" t="n">
         <v>2.326463555161482</v>
       </c>
-      <c r="T42" t="n">
+      <c r="U42" t="n">
         <v>374.5606323809986</v>
       </c>
-      <c r="U42" t="n">
+      <c r="V42" t="n">
         <v>12.795549553388152</v>
       </c>
-      <c r="V42" t="n">
+      <c r="W42" t="n">
         <v>387.3561819343867</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B43" t="n">
         <v>2.376857805E9</v>
@@ -3184,51 +3313,54 @@
         <v>83.0</v>
       </c>
       <c r="I43" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J43" t="s">
-        <v>79</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.8414470549280503</v>
+        <v>80</v>
+      </c>
+      <c r="K43" t="s">
+        <v>79</v>
       </c>
       <c r="L43" t="n">
         <v>0.8414470549280503</v>
       </c>
       <c r="M43" t="n">
+        <v>0.8414470549280503</v>
+      </c>
+      <c r="N43" t="n">
         <v>2.5243411647841505</v>
       </c>
-      <c r="N43" t="n">
+      <c r="O43" t="n">
         <v>34.92005277951409</v>
       </c>
-      <c r="O43" t="n">
+      <c r="P43" t="n">
         <v>0.8414470549280503</v>
       </c>
-      <c r="P43" t="n">
+      <c r="Q43" t="n">
         <v>0.42072352746402514</v>
       </c>
-      <c r="Q43" t="n">
+      <c r="R43" t="n">
         <v>1.6828941098561006</v>
       </c>
-      <c r="R43" t="n">
+      <c r="S43" t="n">
         <v>37.44439394429824</v>
       </c>
-      <c r="S43" t="n">
+      <c r="T43" t="n">
         <v>1.2621705823920755</v>
       </c>
-      <c r="T43" t="n">
+      <c r="U43" t="n">
         <v>4.207235274640251</v>
       </c>
-      <c r="U43" t="n">
+      <c r="V43" t="n">
         <v>36.18222336190617</v>
       </c>
-      <c r="V43" t="n">
+      <c r="W43" t="n">
         <v>40.38945863654642</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B44" t="n">
         <v>6.51502442E8</v>
@@ -3252,51 +3384,54 @@
         <v>0.0</v>
       </c>
       <c r="I44" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J44" t="s">
-        <v>78</v>
-      </c>
-      <c r="K44" t="n">
+        <v>79</v>
+      </c>
+      <c r="K44" t="s">
+        <v>79</v>
+      </c>
+      <c r="L44" t="n">
         <v>3.069827326909697</v>
       </c>
-      <c r="L44" t="n">
+      <c r="M44" t="n">
         <v>1.5349136634548486</v>
       </c>
-      <c r="M44" t="n">
+      <c r="N44" t="n">
         <v>244.0512724893209</v>
       </c>
-      <c r="N44" t="n">
-        <v>0.0</v>
-      </c>
       <c r="O44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P44" t="n">
         <v>1.5349136634548486</v>
       </c>
-      <c r="P44" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Q44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R44" t="n">
         <v>4.6047409903645455</v>
       </c>
-      <c r="R44" t="n">
+      <c r="S44" t="n">
         <v>244.0512724893209</v>
       </c>
-      <c r="S44" t="n">
+      <c r="T44" t="n">
         <v>1.5349136634548486</v>
       </c>
-      <c r="T44" t="n">
+      <c r="U44" t="n">
         <v>248.65601347968544</v>
       </c>
-      <c r="U44" t="n">
+      <c r="V44" t="n">
         <v>1.5349136634548486</v>
       </c>
-      <c r="V44" t="n">
+      <c r="W44" t="n">
         <v>250.1909271431403</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B45" t="n">
         <v>3.27652577E9</v>
@@ -3320,20 +3455,20 @@
         <v>0.0</v>
       </c>
       <c r="I45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J45" t="s">
-        <v>78</v>
-      </c>
-      <c r="K45" t="n">
+        <v>79</v>
+      </c>
+      <c r="K45" t="s">
+        <v>79</v>
+      </c>
+      <c r="L45" t="n">
         <v>0.3052013230465146</v>
       </c>
-      <c r="L45" t="n">
+      <c r="M45" t="n">
         <v>2.4416105843721168</v>
       </c>
-      <c r="M45" t="n">
-        <v>0.0</v>
-      </c>
       <c r="N45" t="n">
         <v>0.0</v>
       </c>
@@ -3344,27 +3479,30 @@
         <v>0.0</v>
       </c>
       <c r="Q45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R45" t="n">
         <v>2.7468119074186315</v>
       </c>
-      <c r="R45" t="n">
-        <v>0.0</v>
-      </c>
       <c r="S45" t="n">
         <v>0.0</v>
       </c>
       <c r="T45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U45" t="n">
         <v>0.3052013230465146</v>
       </c>
-      <c r="U45" t="n">
+      <c r="V45" t="n">
         <v>2.4416105843721168</v>
       </c>
-      <c r="V45" t="n">
+      <c r="W45" t="n">
         <v>2.7468119074186315</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B46" t="n">
         <v>3.25582976E8</v>
@@ -3388,51 +3526,54 @@
         <v>0.0</v>
       </c>
       <c r="I46" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J46" t="s">
-        <v>78</v>
-      </c>
-      <c r="K46" t="n">
+        <v>79</v>
+      </c>
+      <c r="K46" t="s">
+        <v>79</v>
+      </c>
+      <c r="L46" t="n">
         <v>6.14282732030805</v>
       </c>
-      <c r="L46" t="n">
+      <c r="M46" t="n">
         <v>12.2856546406161</v>
       </c>
-      <c r="M46" t="n">
+      <c r="N46" t="n">
         <v>42.99979124215635</v>
       </c>
-      <c r="N46" t="n">
-        <v>0.0</v>
-      </c>
       <c r="O46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P46" t="n">
         <v>3.071413660154025</v>
       </c>
-      <c r="P46" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Q46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R46" t="n">
         <v>18.42848196092415</v>
       </c>
-      <c r="R46" t="n">
+      <c r="S46" t="n">
         <v>42.99979124215635</v>
       </c>
-      <c r="S46" t="n">
+      <c r="T46" t="n">
         <v>3.071413660154025</v>
       </c>
-      <c r="T46" t="n">
+      <c r="U46" t="n">
         <v>52.21403222261842</v>
       </c>
-      <c r="U46" t="n">
+      <c r="V46" t="n">
         <v>12.2856546406161</v>
       </c>
-      <c r="V46" t="n">
+      <c r="W46" t="n">
         <v>64.49968686323452</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B47" t="n">
         <v>7.92601299E8</v>
@@ -3456,51 +3597,54 @@
         <v>0.0</v>
       </c>
       <c r="I47" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J47" t="s">
-        <v>79</v>
-      </c>
-      <c r="K47" t="n">
+        <v>80</v>
+      </c>
+      <c r="K47" t="s">
+        <v>79</v>
+      </c>
+      <c r="L47" t="n">
         <v>2.5233367678343916</v>
       </c>
-      <c r="L47" t="n">
+      <c r="M47" t="n">
         <v>3.785005151751587</v>
       </c>
-      <c r="M47" t="n">
+      <c r="N47" t="n">
         <v>288.9220599170378</v>
       </c>
-      <c r="N47" t="n">
-        <v>0.0</v>
-      </c>
       <c r="O47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P47" t="n">
         <v>1.2616683839171958</v>
       </c>
-      <c r="P47" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Q47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R47" t="n">
         <v>6.3083419195859785</v>
       </c>
-      <c r="R47" t="n">
+      <c r="S47" t="n">
         <v>288.9220599170378</v>
       </c>
-      <c r="S47" t="n">
+      <c r="T47" t="n">
         <v>1.2616683839171958</v>
       </c>
-      <c r="T47" t="n">
+      <c r="U47" t="n">
         <v>292.7070650687894</v>
       </c>
-      <c r="U47" t="n">
+      <c r="V47" t="n">
         <v>3.785005151751587</v>
       </c>
-      <c r="V47" t="n">
+      <c r="W47" t="n">
         <v>296.492070220541</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B48" t="n">
         <v>2.59373346E8</v>
@@ -3524,51 +3668,54 @@
         <v>3.0</v>
       </c>
       <c r="I48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J48" t="s">
-        <v>78</v>
-      </c>
-      <c r="K48" t="n">
+        <v>79</v>
+      </c>
+      <c r="K48" t="s">
+        <v>79</v>
+      </c>
+      <c r="L48" t="n">
         <v>11.566338817250713</v>
       </c>
-      <c r="L48" t="n">
+      <c r="M48" t="n">
         <v>3.8554462724169043</v>
-      </c>
-      <c r="M48" t="n">
-        <v>11.566338817250713</v>
       </c>
       <c r="N48" t="n">
         <v>11.566338817250713</v>
       </c>
       <c r="O48" t="n">
-        <v>3.8554462724169043</v>
+        <v>11.566338817250713</v>
       </c>
       <c r="P48" t="n">
         <v>3.8554462724169043</v>
       </c>
       <c r="Q48" t="n">
+        <v>3.8554462724169043</v>
+      </c>
+      <c r="R48" t="n">
         <v>15.421785089667617</v>
       </c>
-      <c r="R48" t="n">
+      <c r="S48" t="n">
         <v>23.132677634501427</v>
       </c>
-      <c r="S48" t="n">
+      <c r="T48" t="n">
         <v>7.710892544833809</v>
       </c>
-      <c r="T48" t="n">
+      <c r="U48" t="n">
         <v>26.988123906918332</v>
       </c>
-      <c r="U48" t="n">
+      <c r="V48" t="n">
         <v>19.27723136208452</v>
       </c>
-      <c r="V48" t="n">
+      <c r="W48" t="n">
         <v>46.26535526900285</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B49" t="n">
         <v>1.509195646E9</v>
@@ -3592,51 +3739,54 @@
         <v>188.0</v>
       </c>
       <c r="I49" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J49" t="s">
-        <v>78</v>
-      </c>
-      <c r="K49" t="n">
+        <v>79</v>
+      </c>
+      <c r="K49" t="s">
+        <v>79</v>
+      </c>
+      <c r="L49" t="n">
         <v>5.300836920119235</v>
       </c>
-      <c r="L49" t="n">
+      <c r="M49" t="n">
         <v>4.638232305104331</v>
       </c>
-      <c r="M49" t="n">
+      <c r="N49" t="n">
         <v>64.93525227146063</v>
       </c>
-      <c r="N49" t="n">
+      <c r="O49" t="n">
         <v>124.56966762280204</v>
       </c>
-      <c r="O49" t="n">
+      <c r="P49" t="n">
         <v>1.9878138450447134</v>
       </c>
-      <c r="P49" t="n">
+      <c r="Q49" t="n">
         <v>1.3252092300298088</v>
       </c>
-      <c r="Q49" t="n">
+      <c r="R49" t="n">
         <v>9.939069225223566</v>
       </c>
-      <c r="R49" t="n">
+      <c r="S49" t="n">
         <v>189.50491989426268</v>
       </c>
-      <c r="S49" t="n">
+      <c r="T49" t="n">
         <v>3.313023075074522</v>
       </c>
-      <c r="T49" t="n">
+      <c r="U49" t="n">
         <v>72.22390303662458</v>
       </c>
-      <c r="U49" t="n">
+      <c r="V49" t="n">
         <v>130.53310915793617</v>
       </c>
-      <c r="V49" t="n">
+      <c r="W49" t="n">
         <v>202.75701219456073</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B50" t="n">
         <v>6.19130754E8</v>
@@ -3660,13 +3810,13 @@
         <v>0.0</v>
       </c>
       <c r="I50" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J50" t="s">
-        <v>79</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.0</v>
+        <v>80</v>
+      </c>
+      <c r="K50" t="s">
+        <v>79</v>
       </c>
       <c r="L50" t="n">
         <v>0.0</v>
@@ -3699,12 +3849,15 @@
         <v>0.0</v>
       </c>
       <c r="V50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W50" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B51" t="n">
         <v>1.70280225E9</v>
@@ -3728,51 +3881,54 @@
         <v>1.0</v>
       </c>
       <c r="I51" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J51" t="s">
-        <v>78</v>
-      </c>
-      <c r="K51" t="n">
+        <v>79</v>
+      </c>
+      <c r="K51" t="s">
+        <v>79</v>
+      </c>
+      <c r="L51" t="n">
         <v>4.6981380251288725</v>
       </c>
-      <c r="L51" t="n">
+      <c r="M51" t="n">
         <v>1.1745345062822181</v>
       </c>
-      <c r="M51" t="n">
+      <c r="N51" t="n">
         <v>180.8783139674616</v>
       </c>
-      <c r="N51" t="n">
+      <c r="O51" t="n">
         <v>0.5872672531411091</v>
       </c>
-      <c r="O51" t="n">
+      <c r="P51" t="n">
         <v>2.3490690125644362</v>
       </c>
-      <c r="P51" t="n">
+      <c r="Q51" t="n">
         <v>0.5872672531411091</v>
       </c>
-      <c r="Q51" t="n">
+      <c r="R51" t="n">
         <v>5.872672531411091</v>
       </c>
-      <c r="R51" t="n">
+      <c r="S51" t="n">
         <v>181.4655812206027</v>
       </c>
-      <c r="S51" t="n">
+      <c r="T51" t="n">
         <v>2.9363362657055454</v>
       </c>
-      <c r="T51" t="n">
+      <c r="U51" t="n">
         <v>187.9255210051549</v>
       </c>
-      <c r="U51" t="n">
+      <c r="V51" t="n">
         <v>2.3490690125644362</v>
       </c>
-      <c r="V51" t="n">
+      <c r="W51" t="n">
         <v>190.27459001771933</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B52" t="n">
         <v>1.946098294E9</v>
@@ -3796,51 +3952,54 @@
         <v>84.0</v>
       </c>
       <c r="I52" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J52" t="s">
-        <v>78</v>
-      </c>
-      <c r="K52" t="n">
-        <v>4.110789277532762</v>
+        <v>79</v>
+      </c>
+      <c r="K52" t="s">
+        <v>79</v>
       </c>
       <c r="L52" t="n">
         <v>4.110789277532762</v>
       </c>
       <c r="M52" t="n">
+        <v>4.110789277532762</v>
+      </c>
+      <c r="N52" t="n">
         <v>32.88631422026209</v>
       </c>
-      <c r="N52" t="n">
+      <c r="O52" t="n">
         <v>43.16328741409399</v>
       </c>
-      <c r="O52" t="n">
+      <c r="P52" t="n">
         <v>1.5415459790747856</v>
       </c>
-      <c r="P52" t="n">
+      <c r="Q52" t="n">
         <v>1.0276973193831904</v>
       </c>
-      <c r="Q52" t="n">
+      <c r="R52" t="n">
         <v>8.221578555065523</v>
       </c>
-      <c r="R52" t="n">
+      <c r="S52" t="n">
         <v>76.0496016343561</v>
       </c>
-      <c r="S52" t="n">
+      <c r="T52" t="n">
         <v>2.569243298457976</v>
       </c>
-      <c r="T52" t="n">
+      <c r="U52" t="n">
         <v>38.53864947686964</v>
       </c>
-      <c r="U52" t="n">
+      <c r="V52" t="n">
         <v>48.30177401100995</v>
       </c>
-      <c r="V52" t="n">
+      <c r="W52" t="n">
         <v>86.84042348787958</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B53" t="n">
         <v>7.139291291E9</v>
@@ -3864,51 +4023,54 @@
         <v>109.0</v>
       </c>
       <c r="I53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J53" t="s">
-        <v>79</v>
-      </c>
-      <c r="K53" t="n">
+        <v>80</v>
+      </c>
+      <c r="K53" t="s">
+        <v>80</v>
+      </c>
+      <c r="L53" t="n">
         <v>2.661328586487563</v>
       </c>
-      <c r="L53" t="n">
+      <c r="M53" t="n">
         <v>1.9609789584645203</v>
       </c>
-      <c r="M53" t="n">
+      <c r="N53" t="n">
         <v>44.68230626787014</v>
       </c>
-      <c r="N53" t="n">
+      <c r="O53" t="n">
         <v>15.267621890902335</v>
       </c>
-      <c r="O53" t="n">
+      <c r="P53" t="n">
         <v>1.1205594048368686</v>
       </c>
-      <c r="P53" t="n">
+      <c r="Q53" t="n">
         <v>0.28013985120921714</v>
       </c>
-      <c r="Q53" t="n">
+      <c r="R53" t="n">
         <v>4.622307544952084</v>
       </c>
-      <c r="R53" t="n">
+      <c r="S53" t="n">
         <v>59.94992815877247</v>
       </c>
-      <c r="S53" t="n">
+      <c r="T53" t="n">
         <v>1.4006992560460856</v>
       </c>
-      <c r="T53" t="n">
+      <c r="U53" t="n">
         <v>48.46419425919457</v>
       </c>
-      <c r="U53" t="n">
+      <c r="V53" t="n">
         <v>17.508740700576073</v>
       </c>
-      <c r="V53" t="n">
+      <c r="W53" t="n">
         <v>65.97293495977064</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B54" t="n">
         <v>2.455687887E9</v>
@@ -3932,51 +4094,54 @@
         <v>23.0</v>
       </c>
       <c r="I54" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J54" t="s">
-        <v>79</v>
-      </c>
-      <c r="K54" t="n">
+        <v>80</v>
+      </c>
+      <c r="K54" t="s">
+        <v>80</v>
+      </c>
+      <c r="L54" t="n">
         <v>6.515485980405457</v>
       </c>
-      <c r="L54" t="n">
+      <c r="M54" t="n">
         <v>4.479396611528752</v>
       </c>
-      <c r="M54" t="n">
+      <c r="N54" t="n">
         <v>91.2168037256764</v>
       </c>
-      <c r="N54" t="n">
+      <c r="O54" t="n">
         <v>9.366011096832844</v>
       </c>
-      <c r="O54" t="n">
+      <c r="P54" t="n">
         <v>2.8505251164273875</v>
       </c>
-      <c r="P54" t="n">
+      <c r="Q54" t="n">
         <v>0.8144357475506822</v>
       </c>
-      <c r="Q54" t="n">
+      <c r="R54" t="n">
         <v>10.994882591934209</v>
       </c>
-      <c r="R54" t="n">
+      <c r="S54" t="n">
         <v>100.58281482250925</v>
       </c>
-      <c r="S54" t="n">
+      <c r="T54" t="n">
         <v>3.6649608639780697</v>
       </c>
-      <c r="T54" t="n">
+      <c r="U54" t="n">
         <v>100.58281482250925</v>
       </c>
-      <c r="U54" t="n">
+      <c r="V54" t="n">
         <v>14.659843455912277</v>
       </c>
-      <c r="V54" t="n">
+      <c r="W54" t="n">
         <v>115.24265827842153</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B55" t="n">
         <v>6.25084918E8</v>
@@ -4000,51 +4165,54 @@
         <v>0.0</v>
       </c>
       <c r="I55" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J55" t="s">
-        <v>78</v>
-      </c>
-      <c r="K55" t="n">
+        <v>79</v>
+      </c>
+      <c r="K55" t="s">
+        <v>79</v>
+      </c>
+      <c r="L55" t="n">
         <v>11.198478476167617</v>
       </c>
-      <c r="L55" t="n">
+      <c r="M55" t="n">
         <v>1.5997826394525168</v>
       </c>
-      <c r="M55" t="n">
+      <c r="N55" t="n">
         <v>273.5628313463804</v>
       </c>
-      <c r="N55" t="n">
-        <v>0.0</v>
-      </c>
       <c r="O55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P55" t="n">
         <v>4.79934791835755</v>
       </c>
-      <c r="P55" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Q55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R55" t="n">
         <v>12.798261115620134</v>
       </c>
-      <c r="R55" t="n">
+      <c r="S55" t="n">
         <v>273.5628313463804</v>
       </c>
-      <c r="S55" t="n">
+      <c r="T55" t="n">
         <v>4.79934791835755</v>
       </c>
-      <c r="T55" t="n">
+      <c r="U55" t="n">
         <v>289.5606577409056</v>
       </c>
-      <c r="U55" t="n">
+      <c r="V55" t="n">
         <v>1.5997826394525168</v>
       </c>
-      <c r="V55" t="n">
+      <c r="W55" t="n">
         <v>291.1604403803581</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B56" t="n">
         <v>1.005248585E9</v>
@@ -4068,17 +4236,17 @@
         <v>0.0</v>
       </c>
       <c r="I56" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J56" t="s">
-        <v>79</v>
-      </c>
-      <c r="K56" t="n">
+        <v>80</v>
+      </c>
+      <c r="K56" t="s">
+        <v>79</v>
+      </c>
+      <c r="L56" t="n">
         <v>0.9947788188132589</v>
       </c>
-      <c r="L56" t="n">
-        <v>0.0</v>
-      </c>
       <c r="M56" t="n">
         <v>0.0</v>
       </c>
@@ -4092,27 +4260,30 @@
         <v>0.0</v>
       </c>
       <c r="Q56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R56" t="n">
         <v>0.9947788188132589</v>
       </c>
-      <c r="R56" t="n">
-        <v>0.0</v>
-      </c>
       <c r="S56" t="n">
         <v>0.0</v>
       </c>
       <c r="T56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U56" t="n">
         <v>0.9947788188132589</v>
       </c>
-      <c r="U56" t="n">
-        <v>0.0</v>
-      </c>
       <c r="V56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W56" t="n">
         <v>0.9947788188132589</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B57" t="n">
         <v>4.30462962E8</v>
@@ -4136,45 +4307,48 @@
         <v>0.0</v>
       </c>
       <c r="I57" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J57" t="s">
-        <v>78</v>
-      </c>
-      <c r="K57" t="n">
+        <v>79</v>
+      </c>
+      <c r="K57" t="s">
+        <v>79</v>
+      </c>
+      <c r="L57" t="n">
         <v>20.907722137543622</v>
       </c>
-      <c r="L57" t="n">
+      <c r="M57" t="n">
         <v>4.646160475009695</v>
       </c>
-      <c r="M57" t="n">
+      <c r="N57" t="n">
         <v>190.49257947539746</v>
       </c>
-      <c r="N57" t="n">
-        <v>0.0</v>
-      </c>
       <c r="O57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P57" t="n">
         <v>2.3230802375048474</v>
       </c>
-      <c r="P57" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Q57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R57" t="n">
         <v>25.553882612553316</v>
       </c>
-      <c r="R57" t="n">
+      <c r="S57" t="n">
         <v>190.49257947539746</v>
       </c>
-      <c r="S57" t="n">
+      <c r="T57" t="n">
         <v>2.3230802375048474</v>
       </c>
-      <c r="T57" t="n">
+      <c r="U57" t="n">
         <v>213.72338185044595</v>
       </c>
-      <c r="U57" t="n">
+      <c r="V57" t="n">
         <v>4.646160475009695</v>
       </c>
-      <c r="V57" t="n">
+      <c r="W57" t="n">
         <v>218.36954232545565</v>
       </c>
     </row>
